--- a/IterLight_Aspen_Enhanced_Dataset.xlsx
+++ b/IterLight_Aspen_Enhanced_Dataset.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="IterLight Aspen Project - Clean" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="IterLight Aspen Project - Clean"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -3235,26 +3238,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="$#,##0_);($#,##0)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF0000ff"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3262,52 +3270,89 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -3334,22 +3379,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3361,159 +3466,206 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3525,10 +3677,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3540,7 +3692,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -3550,32 +3702,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -3587,42 +3739,42 @@
       <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -3634,27 +3786,27 @@
       <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3666,10 +3818,10 @@
       <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -3681,7 +3833,7 @@
       <c r="L4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -3691,17 +3843,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3713,10 +3865,10 @@
       <c r="G5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -3728,7 +3880,7 @@
       <c r="L5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -3738,32 +3890,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -3775,27 +3927,27 @@
       <c r="L6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="5" t="s">
         <v>59</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3807,10 +3959,10 @@
       <c r="G7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -3822,27 +3974,27 @@
       <c r="L7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3854,10 +4006,10 @@
       <c r="G8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -3869,7 +4021,7 @@
       <c r="L8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -3879,17 +4031,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3901,7 +4053,8 @@
       <c r="G9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="3" t="s">
         <v>87</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -3913,7 +4066,7 @@
       <c r="L9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -3923,17 +4076,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3945,10 +4098,10 @@
       <c r="G10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>96</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3960,7 +4113,7 @@
       <c r="L10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -3970,17 +4123,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
       <c r="A11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3992,10 +4145,10 @@
       <c r="G11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="3" t="s">
         <v>105</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -4007,7 +4160,7 @@
       <c r="L11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -4017,17 +4170,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4039,7 +4192,8 @@
       <c r="G12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="3" t="s">
         <v>114</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -4051,7 +4205,7 @@
       <c r="L12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -4061,17 +4215,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -4083,10 +4237,10 @@
       <c r="G13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -4098,7 +4252,7 @@
       <c r="L13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="3" t="s">
         <v>124</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -4108,17 +4262,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -4130,10 +4284,10 @@
       <c r="G14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>131</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -4145,7 +4299,7 @@
       <c r="L14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="3" t="s">
         <v>132</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -4155,17 +4309,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -4177,7 +4331,8 @@
       <c r="G15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="3" t="s">
         <v>139</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -4189,7 +4344,7 @@
       <c r="L15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="3" t="s">
         <v>139</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -4199,17 +4354,17 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4221,10 +4376,10 @@
       <c r="G16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="1">
-        <v>2026.0</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="4">
+        <v>2026</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>146</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -4236,7 +4391,7 @@
       <c r="L16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="3" t="s">
         <v>147</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -4246,17 +4401,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -4268,10 +4423,10 @@
       <c r="G17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="3" t="s">
         <v>155</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -4283,7 +4438,7 @@
       <c r="L17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -4293,17 +4448,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>160</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -4315,10 +4470,10 @@
       <c r="G18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="3" t="s">
         <v>165</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -4330,7 +4485,7 @@
       <c r="L18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="3" t="s">
         <v>166</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -4340,17 +4495,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -4362,10 +4517,10 @@
       <c r="G19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="3" t="s">
         <v>173</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -4377,7 +4532,7 @@
       <c r="L19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="3" t="s">
         <v>174</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -4387,32 +4542,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
       <c r="A20" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="5" t="s">
         <v>179</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="3" t="s">
         <v>182</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -4424,7 +4579,7 @@
       <c r="L20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="3" t="s">
         <v>183</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -4434,17 +4589,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>186</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -4456,10 +4611,10 @@
       <c r="G21" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="3" t="s">
         <v>191</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -4471,7 +4626,7 @@
       <c r="L21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="3" t="s">
         <v>192</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -4481,17 +4636,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -4503,7 +4658,8 @@
       <c r="G22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="3" t="s">
         <v>199</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -4515,7 +4671,7 @@
       <c r="L22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="3" t="s">
         <v>199</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -4525,17 +4681,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -4547,10 +4703,10 @@
       <c r="G23" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>206</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -4562,7 +4718,7 @@
       <c r="L23" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="3" t="s">
         <v>206</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -4572,32 +4728,32 @@
         <v>205</v>
       </c>
     </row>
-    <row r="24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>208</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="5" t="s">
         <v>210</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="3" t="s">
         <v>213</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -4609,7 +4765,7 @@
       <c r="L24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="3" t="s">
         <v>214</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -4619,17 +4775,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -4641,10 +4797,10 @@
       <c r="G25" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="3" t="s">
         <v>222</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -4656,7 +4812,7 @@
       <c r="L25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="3" t="s">
         <v>223</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -4666,17 +4822,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -4688,10 +4844,10 @@
       <c r="G26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>229</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -4703,7 +4859,7 @@
       <c r="L26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="3" t="s">
         <v>230</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -4713,17 +4869,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>233</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -4735,10 +4891,10 @@
       <c r="G27" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>237</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -4750,7 +4906,7 @@
       <c r="L27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="3" t="s">
         <v>238</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -4760,17 +4916,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C28" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -4782,10 +4938,10 @@
       <c r="G28" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="3" t="s">
         <v>246</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -4797,7 +4953,7 @@
       <c r="L28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="3" t="s">
         <v>246</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -4807,17 +4963,17 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -4829,10 +4985,10 @@
       <c r="G29" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="3" t="s">
         <v>256</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -4844,7 +5000,7 @@
       <c r="L29" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="3" t="s">
         <v>256</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -4854,17 +5010,17 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C30" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>258</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -4876,10 +5032,10 @@
       <c r="G30" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="3" t="s">
         <v>263</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -4891,7 +5047,7 @@
       <c r="L30" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="3" t="s">
         <v>263</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -4901,17 +5057,17 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -4923,10 +5079,10 @@
       <c r="G31" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="H31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>269</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -4938,7 +5094,7 @@
       <c r="L31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="3" t="s">
         <v>269</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -4948,32 +5104,32 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="4">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="5" t="s">
         <v>273</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>274</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -4985,27 +5141,27 @@
       <c r="L32" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="5" t="s">
         <v>273</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="4">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -5017,10 +5173,10 @@
       <c r="G33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>278</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -5032,7 +5188,7 @@
       <c r="L33" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="3" t="s">
         <v>278</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -5042,32 +5198,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C34" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="5" t="s">
         <v>282</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="3" t="s">
         <v>285</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -5079,42 +5235,42 @@
       <c r="L34" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="N34" s="5" t="s">
         <v>282</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C35" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="4">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="5" t="s">
         <v>288</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="3" t="s">
         <v>289</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -5126,42 +5282,42 @@
       <c r="L35" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N35" s="5" t="s">
         <v>288</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C36" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="4">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>292</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="5" t="s">
         <v>294</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="3" t="s">
         <v>296</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -5173,42 +5329,42 @@
       <c r="L36" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" s="5" t="s">
         <v>294</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C37" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="4">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>292</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="5" t="s">
         <v>299</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="3" t="s">
         <v>301</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -5220,27 +5376,27 @@
       <c r="L37" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" s="5" t="s">
         <v>299</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C38" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>304</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -5252,10 +5408,10 @@
       <c r="G38" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="3" t="s">
         <v>309</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -5267,7 +5423,7 @@
       <c r="L38" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="3" t="s">
         <v>309</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -5277,17 +5433,17 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C39" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="4">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>311</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -5299,7 +5455,8 @@
       <c r="G39" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="H39" s="6"/>
+      <c r="I39" s="3" t="s">
         <v>315</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -5311,7 +5468,7 @@
       <c r="L39" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="3" t="s">
         <v>315</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -5321,32 +5478,32 @@
         <v>314</v>
       </c>
     </row>
-    <row r="40">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C40" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="4">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="5" t="s">
         <v>319</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="H40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>320</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -5358,27 +5515,27 @@
       <c r="L40" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="N40" s="5" t="s">
         <v>319</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C41" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="4">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>322</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -5390,10 +5547,10 @@
       <c r="G41" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="3" t="s">
         <v>326</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -5405,7 +5562,7 @@
       <c r="L41" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="3" t="s">
         <v>326</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -5415,17 +5572,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="4">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -5437,7 +5594,8 @@
       <c r="G42" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="H42" s="6"/>
+      <c r="I42" s="3" t="s">
         <v>331</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -5449,7 +5607,7 @@
       <c r="L42" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="3" t="s">
         <v>331</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -5459,17 +5617,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C43" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="4">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>335</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -5481,10 +5639,10 @@
       <c r="G43" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="3" t="s">
         <v>340</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -5496,7 +5654,7 @@
       <c r="L43" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="3" t="s">
         <v>340</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -5506,17 +5664,17 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C44" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>342</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -5528,10 +5686,10 @@
       <c r="G44" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="H44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>346</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -5543,7 +5701,7 @@
       <c r="L44" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="3" t="s">
         <v>346</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -5553,32 +5711,32 @@
         <v>345</v>
       </c>
     </row>
-    <row r="45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C45" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="4">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="5" t="s">
         <v>349</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>351</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -5590,27 +5748,27 @@
       <c r="L45" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N45" s="5" t="s">
         <v>349</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="46">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C46" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="4">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -5622,7 +5780,8 @@
       <c r="G46" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="6"/>
+      <c r="I46" s="3" t="s">
         <v>357</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -5634,7 +5793,7 @@
       <c r="L46" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="3" t="s">
         <v>357</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -5644,17 +5803,17 @@
         <v>356</v>
       </c>
     </row>
-    <row r="47">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="4">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -5666,10 +5825,10 @@
       <c r="G47" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="3" t="s">
         <v>363</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -5681,7 +5840,7 @@
       <c r="L47" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="3" t="s">
         <v>363</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -5691,17 +5850,17 @@
         <v>245</v>
       </c>
     </row>
-    <row r="48">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -5713,11 +5872,11 @@
       <c r="G48" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I48" s="1">
-        <v>59.0</v>
+      <c r="I48" s="4">
+        <v>59</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>78</v>
@@ -5728,6 +5887,7 @@
       <c r="L48" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M48" s="7"/>
       <c r="N48" s="1" t="s">
         <v>370</v>
       </c>
@@ -5735,17 +5895,17 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -5757,9 +5917,10 @@
       <c r="G49" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="H49" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="1" t="s">
         <v>78</v>
       </c>
@@ -5769,6 +5930,7 @@
       <c r="L49" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="M49" s="7"/>
       <c r="N49" s="1" t="s">
         <v>376</v>
       </c>
@@ -5776,17 +5938,17 @@
         <v>375</v>
       </c>
     </row>
-    <row r="50">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>378</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -5798,10 +5960,10 @@
       <c r="G50" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="3" t="s">
         <v>245</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -5813,7 +5975,7 @@
       <c r="L50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="3" t="s">
         <v>245</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -5823,17 +5985,17 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="4">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>383</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -5845,10 +6007,10 @@
       <c r="G51" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" s="3" t="s">
         <v>387</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -5860,7 +6022,7 @@
       <c r="L51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="3" t="s">
         <v>387</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -5870,17 +6032,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="52">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="4">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>390</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -5892,10 +6054,10 @@
       <c r="G52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="3" t="s">
         <v>394</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -5907,7 +6069,7 @@
       <c r="L52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="3" t="s">
         <v>394</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -5917,17 +6079,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="53">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -5939,10 +6101,10 @@
       <c r="G53" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="H53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>400</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -5954,7 +6116,7 @@
       <c r="L53" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="3" t="s">
         <v>401</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -5964,17 +6126,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>404</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -5986,10 +6148,10 @@
       <c r="G54" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="3" t="s">
         <v>408</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -6001,7 +6163,7 @@
       <c r="L54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="3" t="s">
         <v>408</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -6011,17 +6173,17 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -6033,10 +6195,10 @@
       <c r="G55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="3" t="s">
         <v>412</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -6048,7 +6210,7 @@
       <c r="L55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="3" t="s">
         <v>412</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -6058,17 +6220,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>415</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -6080,10 +6242,10 @@
       <c r="G56" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="3" t="s">
         <v>419</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -6095,7 +6257,7 @@
       <c r="L56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="3" t="s">
         <v>419</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -6105,17 +6267,17 @@
         <v>418</v>
       </c>
     </row>
-    <row r="57">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -6127,10 +6289,10 @@
       <c r="G57" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="3" t="s">
         <v>424</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -6142,7 +6304,7 @@
       <c r="L57" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="3" t="s">
         <v>424</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -6152,17 +6314,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1" t="s">
         <v>425</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>426</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -6174,10 +6336,10 @@
       <c r="G58" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="H58" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>430</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -6189,7 +6351,7 @@
       <c r="L58" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="3" t="s">
         <v>430</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -6199,32 +6361,32 @@
         <v>429</v>
       </c>
     </row>
-    <row r="59">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C59" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="4">
+        <v>3</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>292</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="5" t="s">
         <v>433</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="H59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>434</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -6236,27 +6398,27 @@
       <c r="L59" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="N59" s="5" t="s">
         <v>433</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C60" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="4">
+        <v>3</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>292</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -6268,10 +6430,10 @@
       <c r="G60" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" s="3" t="s">
         <v>439</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -6283,7 +6445,7 @@
       <c r="L60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="3" t="s">
         <v>439</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -6293,17 +6455,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C61" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>441</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -6315,10 +6477,10 @@
       <c r="G61" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="3" t="s">
         <v>446</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -6330,7 +6492,7 @@
       <c r="L61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="3" t="s">
         <v>447</v>
       </c>
       <c r="N61" s="1" t="s">
@@ -6340,17 +6502,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>450</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -6362,10 +6524,10 @@
       <c r="G62" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="H62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -6377,7 +6539,7 @@
       <c r="L62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="3" t="s">
         <v>454</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -6387,17 +6549,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>457</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -6409,10 +6571,10 @@
       <c r="G63" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" s="3" t="s">
         <v>407</v>
       </c>
       <c r="J63" s="1" t="s">
@@ -6424,7 +6586,7 @@
       <c r="L63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="3" t="s">
         <v>462</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -6434,17 +6596,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="C64" s="4">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -6456,10 +6618,10 @@
       <c r="G64" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="3" t="s">
         <v>469</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -6471,7 +6633,7 @@
       <c r="L64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="3" t="s">
         <v>470</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -6481,17 +6643,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -6503,10 +6665,10 @@
       <c r="G65" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="3" t="s">
         <v>476</v>
       </c>
       <c r="J65" s="1" t="s">
@@ -6518,7 +6680,7 @@
       <c r="L65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="3" t="s">
         <v>477</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -6528,17 +6690,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>480</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -6550,10 +6712,10 @@
       <c r="G66" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" s="3" t="s">
         <v>484</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -6565,7 +6727,7 @@
       <c r="L66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" s="3" t="s">
         <v>485</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -6575,17 +6737,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>169</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -6597,10 +6759,10 @@
       <c r="G67" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" s="3" t="s">
         <v>491</v>
       </c>
       <c r="J67" s="1" t="s">
@@ -6612,7 +6774,7 @@
       <c r="L67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="3" t="s">
         <v>492</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -6622,17 +6784,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>495</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -6645,10 +6807,10 @@
         <v>498</v>
       </c>
       <c r="H68" s="3">
-        <v>45733.0</v>
+        <v>45733</v>
       </c>
       <c r="I68" s="3">
-        <v>45824.0</v>
+        <v>45824</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>78</v>
@@ -6659,7 +6821,7 @@
       <c r="L68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" s="3" t="s">
         <v>499</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -6669,17 +6831,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>502</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -6691,9 +6853,10 @@
       <c r="G69" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="2" t="s">
         <v>506</v>
       </c>
+      <c r="I69" s="7"/>
       <c r="J69" s="1" t="s">
         <v>78</v>
       </c>
@@ -6703,6 +6866,7 @@
       <c r="L69" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M69" s="7"/>
       <c r="N69" s="1" t="s">
         <v>507</v>
       </c>
@@ -6710,33 +6874,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>509</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="5" t="s">
         <v>511</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>512</v>
       </c>
       <c r="H70" s="3">
-        <v>45823.0</v>
+        <v>45823</v>
       </c>
       <c r="I70" s="3">
-        <v>45915.0</v>
+        <v>45915</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>78</v>
@@ -6748,26 +6912,26 @@
         <v>67</v>
       </c>
       <c r="M70" s="3">
-        <v>45915.0</v>
-      </c>
-      <c r="N70" s="2" t="s">
+        <v>45915</v>
+      </c>
+      <c r="N70" s="5" t="s">
         <v>511</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="71">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="1" t="s">
         <v>514</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>515</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -6779,9 +6943,10 @@
       <c r="G71" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="2" t="s">
         <v>518</v>
       </c>
+      <c r="I71" s="7"/>
       <c r="J71" s="1" t="s">
         <v>78</v>
       </c>
@@ -6791,6 +6956,7 @@
       <c r="L71" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M71" s="7"/>
       <c r="N71" s="1" t="s">
         <v>517</v>
       </c>
@@ -6798,17 +6964,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="1" t="s">
         <v>519</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -6820,7 +6986,8 @@
       <c r="G72" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="H72" s="6"/>
+      <c r="I72" s="3" t="s">
         <v>407</v>
       </c>
       <c r="J72" s="1" t="s">
@@ -6832,7 +6999,7 @@
       <c r="L72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" s="3" t="s">
         <v>407</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -6842,17 +7009,17 @@
         <v>522</v>
       </c>
     </row>
-    <row r="73">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>208</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -6864,10 +7031,10 @@
       <c r="G73" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I73" s="1" t="s">
+      <c r="H73" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>528</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -6879,7 +7046,7 @@
       <c r="L73" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" s="3" t="s">
         <v>528</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -6889,17 +7056,17 @@
         <v>527</v>
       </c>
     </row>
-    <row r="74">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="1" t="s">
         <v>529</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>530</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -6911,9 +7078,10 @@
       <c r="G74" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="2" t="s">
         <v>532</v>
       </c>
+      <c r="I74" s="7"/>
       <c r="J74" s="1" t="s">
         <v>78</v>
       </c>
@@ -6923,7 +7091,7 @@
       <c r="L74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M74" s="3" t="s">
         <v>533</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -6933,17 +7101,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>535</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -6955,10 +7123,10 @@
       <c r="G75" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="H75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>538</v>
       </c>
       <c r="J75" s="1" t="s">
@@ -6970,7 +7138,7 @@
       <c r="L75" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" s="3" t="s">
         <v>538</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -6980,17 +7148,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="1" t="s">
         <v>539</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C76" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -7002,10 +7170,10 @@
       <c r="G76" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" s="3" t="s">
         <v>543</v>
       </c>
       <c r="J76" s="1" t="s">
@@ -7017,7 +7185,7 @@
       <c r="L76" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" s="3" t="s">
         <v>543</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -7027,17 +7195,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="77">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>545</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -7049,10 +7217,10 @@
       <c r="G77" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J77" s="1" t="s">
@@ -7064,7 +7232,7 @@
       <c r="L77" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="M77" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -7074,17 +7242,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>550</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -7096,10 +7264,10 @@
       <c r="G78" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I78" s="1" t="s">
+      <c r="H78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>553</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -7111,7 +7279,7 @@
       <c r="L78" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="M78" s="3" t="s">
         <v>553</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -7121,17 +7289,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>555</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -7143,7 +7311,8 @@
       <c r="G79" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="H79" s="6"/>
+      <c r="I79" s="3" t="s">
         <v>559</v>
       </c>
       <c r="J79" s="1" t="s">
@@ -7155,7 +7324,7 @@
       <c r="L79" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M79" s="3" t="s">
         <v>559</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -7165,17 +7334,17 @@
         <v>558</v>
       </c>
     </row>
-    <row r="80">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="1" t="s">
         <v>560</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>561</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -7187,10 +7356,10 @@
       <c r="G80" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" s="3" t="s">
         <v>565</v>
       </c>
       <c r="J80" s="1" t="s">
@@ -7202,7 +7371,7 @@
       <c r="L80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M80" s="3" t="s">
         <v>565</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -7212,17 +7381,17 @@
         <v>564</v>
       </c>
     </row>
-    <row r="81">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C81" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>567</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -7234,10 +7403,10 @@
       <c r="G81" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I81" s="1" t="s">
+      <c r="H81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>570</v>
       </c>
       <c r="J81" s="1" t="s">
@@ -7249,7 +7418,7 @@
       <c r="L81" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="M81" s="3" t="s">
         <v>570</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -7259,17 +7428,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C82" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C82" s="4">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>572</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -7282,10 +7451,10 @@
         <v>575</v>
       </c>
       <c r="H82" s="3">
-        <v>45930.0</v>
+        <v>45930</v>
       </c>
       <c r="I82" s="3">
-        <v>46022.0</v>
+        <v>46022</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>78</v>
@@ -7297,7 +7466,7 @@
         <v>67</v>
       </c>
       <c r="M82" s="3">
-        <v>46022.0</v>
+        <v>46022</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>576</v>
@@ -7306,17 +7475,17 @@
         <v>575</v>
       </c>
     </row>
-    <row r="83">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>578</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -7328,10 +7497,10 @@
       <c r="G83" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I83" s="1" t="s">
+      <c r="H83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J83" s="1" t="s">
@@ -7343,7 +7512,7 @@
       <c r="L83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M83" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N83" s="1" t="s">
@@ -7353,17 +7522,17 @@
         <v>581</v>
       </c>
     </row>
-    <row r="84">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>583</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -7375,10 +7544,10 @@
       <c r="G84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I84" s="1" t="s">
+      <c r="H84" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>585</v>
       </c>
       <c r="J84" s="1" t="s">
@@ -7390,7 +7559,7 @@
       <c r="L84" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M84" s="3" t="s">
         <v>585</v>
       </c>
       <c r="N84" s="1" t="s">
@@ -7400,17 +7569,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>587</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -7422,9 +7591,10 @@
       <c r="G85" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" s="2" t="s">
         <v>590</v>
       </c>
+      <c r="I85" s="7"/>
       <c r="J85" s="1" t="s">
         <v>78</v>
       </c>
@@ -7434,6 +7604,7 @@
       <c r="L85" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="M85" s="7"/>
       <c r="N85" s="1" t="s">
         <v>589</v>
       </c>
@@ -7441,17 +7612,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="1" t="s">
         <v>591</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>555</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -7463,10 +7634,10 @@
       <c r="G86" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" s="3" t="s">
         <v>596</v>
       </c>
       <c r="J86" s="1" t="s">
@@ -7478,7 +7649,7 @@
       <c r="L86" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M86" s="3" t="s">
         <v>597</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -7488,17 +7659,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>441</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -7510,10 +7681,10 @@
       <c r="G87" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I87" s="1" t="s">
+      <c r="H87" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>595</v>
       </c>
       <c r="J87" s="1" t="s">
@@ -7525,7 +7696,7 @@
       <c r="L87" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="M87" s="3" t="s">
         <v>602</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -7535,17 +7706,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="1" t="s">
         <v>604</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="4">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>605</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -7557,10 +7728,10 @@
       <c r="G88" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I88" s="1" t="s">
+      <c r="H88" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>595</v>
       </c>
       <c r="J88" s="1" t="s">
@@ -7572,7 +7743,7 @@
       <c r="L88" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="M88" s="3" t="s">
         <v>609</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -7582,17 +7753,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="1" t="s">
         <v>611</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="C89" s="4">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>612</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -7604,10 +7775,10 @@
       <c r="G89" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" s="3" t="s">
         <v>616</v>
       </c>
       <c r="J89" s="1" t="s">
@@ -7619,7 +7790,7 @@
       <c r="L89" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="M89" s="3" t="s">
         <v>617</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -7629,17 +7800,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C90" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="4">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>620</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -7651,10 +7822,10 @@
       <c r="G90" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" s="3" t="s">
         <v>624</v>
       </c>
       <c r="J90" s="1" t="s">
@@ -7666,7 +7837,7 @@
       <c r="L90" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="M90" s="3" t="s">
         <v>625</v>
       </c>
       <c r="N90" s="1" t="s">
@@ -7676,17 +7847,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C91" s="4">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>628</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -7698,10 +7869,10 @@
       <c r="G91" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" s="3" t="s">
         <v>631</v>
       </c>
       <c r="J91" s="1" t="s">
@@ -7713,7 +7884,7 @@
       <c r="L91" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="M91" s="3" t="s">
         <v>631</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -7723,17 +7894,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="C92" s="4">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -7745,10 +7916,10 @@
       <c r="G92" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" s="3" t="s">
         <v>635</v>
       </c>
       <c r="J92" s="1" t="s">
@@ -7760,7 +7931,7 @@
       <c r="L92" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="M92" s="3" t="s">
         <v>636</v>
       </c>
       <c r="N92" s="1" t="s">
@@ -7770,17 +7941,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="1" t="s">
         <v>638</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="C93" s="4">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>639</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -7792,10 +7963,10 @@
       <c r="G93" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" s="3" t="s">
         <v>642</v>
       </c>
       <c r="J93" s="1" t="s">
@@ -7807,7 +7978,7 @@
       <c r="L93" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="M93" s="3" t="s">
         <v>642</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -7817,17 +7988,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="1" t="s">
         <v>643</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="C94" s="4">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>495</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -7839,10 +8010,10 @@
       <c r="G94" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" s="3" t="s">
         <v>646</v>
       </c>
       <c r="J94" s="1" t="s">
@@ -7854,7 +8025,7 @@
       <c r="L94" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="M94" s="3" t="s">
         <v>647</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -7864,17 +8035,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="1" t="s">
         <v>649</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C95" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="C95" s="4">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>650</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -7886,10 +8057,10 @@
       <c r="G95" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I95" s="1" t="s">
+      <c r="H95" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>595</v>
       </c>
       <c r="J95" s="1" t="s">
@@ -7901,7 +8072,7 @@
       <c r="L95" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="M95" s="3" t="s">
         <v>654</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -7911,17 +8082,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C96" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="4">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>502</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -7933,10 +8104,10 @@
       <c r="G96" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I96" s="1" t="s">
+      <c r="H96" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>595</v>
       </c>
       <c r="J96" s="1" t="s">
@@ -7948,7 +8119,7 @@
       <c r="L96" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="M96" s="3" t="s">
         <v>595</v>
       </c>
       <c r="N96" s="1" t="s">
@@ -7958,17 +8129,17 @@
         <v>658</v>
       </c>
     </row>
-    <row r="97">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="1" t="s">
         <v>659</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="C97" s="4">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>660</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -7980,10 +8151,10 @@
       <c r="G97" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" s="3" t="s">
         <v>663</v>
       </c>
       <c r="J97" s="1" t="s">
@@ -7995,7 +8166,7 @@
       <c r="L97" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="M97" s="3" t="s">
         <v>664</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -8005,17 +8176,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="1" t="s">
         <v>666</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C98" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>667</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -8027,10 +8198,10 @@
       <c r="G98" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H98" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" s="3" t="s">
         <v>670</v>
       </c>
       <c r="J98" s="1" t="s">
@@ -8042,7 +8213,7 @@
       <c r="L98" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M98" s="3" t="s">
         <v>670</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -8052,17 +8223,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="1" t="s">
         <v>671</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C99" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="C99" s="4">
+        <v>1</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>672</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -8074,10 +8245,10 @@
       <c r="G99" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" s="3" t="s">
         <v>676</v>
       </c>
       <c r="J99" s="1" t="s">
@@ -8089,7 +8260,7 @@
       <c r="L99" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="M99" s="3" t="s">
         <v>677</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -8099,17 +8270,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C100" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="C100" s="4">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>680</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -8121,10 +8292,10 @@
       <c r="G100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" s="3" t="s">
         <v>683</v>
       </c>
       <c r="J100" s="1" t="s">
@@ -8136,7 +8307,7 @@
       <c r="L100" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="M100" s="3" t="s">
         <v>684</v>
       </c>
       <c r="N100" s="1" t="s">
@@ -8146,17 +8317,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="1" t="s">
         <v>686</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C101" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="C101" s="4">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>687</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -8168,10 +8339,10 @@
       <c r="G101" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" s="3" t="s">
         <v>690</v>
       </c>
       <c r="J101" s="1" t="s">
@@ -8183,7 +8354,7 @@
       <c r="L101" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="M101" s="3" t="s">
         <v>690</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -8193,17 +8364,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="C102" s="4">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>692</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -8215,10 +8386,10 @@
       <c r="G102" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" s="3" t="s">
         <v>695</v>
       </c>
       <c r="J102" s="1" t="s">
@@ -8230,7 +8401,7 @@
       <c r="L102" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="M102" s="3" t="s">
         <v>695</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -8240,17 +8411,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="1" t="s">
         <v>696</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C103" s="4">
+        <v>1</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>697</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -8262,10 +8433,10 @@
       <c r="G103" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H103" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="I103" s="3" t="s">
         <v>700</v>
       </c>
       <c r="J103" s="1" t="s">
@@ -8277,7 +8448,7 @@
       <c r="L103" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M103" s="1" t="s">
+      <c r="M103" s="3" t="s">
         <v>701</v>
       </c>
       <c r="N103" s="1" t="s">
@@ -8287,31 +8458,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="1" t="s">
         <v>703</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C104" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="C104" s="4">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>704</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="5" t="s">
         <v>706</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H104" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I104" s="7"/>
       <c r="J104" s="1" t="s">
         <v>78</v>
       </c>
@@ -8321,24 +8493,25 @@
       <c r="L104" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="M104" s="7"/>
+      <c r="N104" s="5" t="s">
         <v>706</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="1" t="s">
         <v>707</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C105" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C105" s="4">
+        <v>2</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -8350,9 +8523,10 @@
       <c r="G105" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H105" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I105" s="7"/>
       <c r="J105" s="1" t="s">
         <v>78</v>
       </c>
@@ -8362,6 +8536,7 @@
       <c r="L105" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M105" s="7"/>
       <c r="N105" s="1" t="s">
         <v>709</v>
       </c>
@@ -8369,17 +8544,17 @@
         <v>710</v>
       </c>
     </row>
-    <row r="106">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C106" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="C106" s="4">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>612</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -8391,9 +8566,10 @@
       <c r="G106" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H106" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I106" s="7"/>
       <c r="J106" s="1" t="s">
         <v>78</v>
       </c>
@@ -8403,6 +8579,7 @@
       <c r="L106" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M106" s="7"/>
       <c r="N106" s="1" t="s">
         <v>713</v>
       </c>
@@ -8410,17 +8587,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="C107" s="4">
+        <v>2</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>715</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -8432,10 +8609,10 @@
       <c r="G107" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I107" s="1" t="s">
+      <c r="H107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I107" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J107" s="1" t="s">
@@ -8447,7 +8624,7 @@
       <c r="L107" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="M107" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N107" s="1" t="s">
@@ -8457,17 +8634,17 @@
         <v>717</v>
       </c>
     </row>
-    <row r="108">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="1" t="s">
         <v>718</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="C108" s="4">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>719</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -8479,9 +8656,10 @@
       <c r="G108" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H108" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I108" s="7"/>
       <c r="J108" s="1" t="s">
         <v>78</v>
       </c>
@@ -8491,6 +8669,7 @@
       <c r="L108" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M108" s="7"/>
       <c r="N108" s="1" t="s">
         <v>482</v>
       </c>
@@ -8498,31 +8677,32 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C109" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="C109" s="4">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>722</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="5" t="s">
         <v>724</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H109" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I109" s="7"/>
       <c r="J109" s="1" t="s">
         <v>78</v>
       </c>
@@ -8532,24 +8712,25 @@
       <c r="L109" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N109" s="2" t="s">
+      <c r="M109" s="7"/>
+      <c r="N109" s="5" t="s">
         <v>724</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="110">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C110" s="4">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -8561,9 +8742,10 @@
       <c r="G110" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H110" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I110" s="7"/>
       <c r="J110" s="1" t="s">
         <v>78</v>
       </c>
@@ -8573,6 +8755,7 @@
       <c r="L110" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M110" s="7"/>
       <c r="N110" s="1" t="s">
         <v>474</v>
       </c>
@@ -8580,17 +8763,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C111" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C111" s="4">
+        <v>2</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>729</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -8602,10 +8785,10 @@
       <c r="G111" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I111" s="1" t="s">
+      <c r="H111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I111" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J111" s="1" t="s">
@@ -8617,7 +8800,7 @@
       <c r="L111" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M111" s="1" t="s">
+      <c r="M111" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N111" s="1" t="s">
@@ -8627,17 +8810,17 @@
         <v>732</v>
       </c>
     </row>
-    <row r="112">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="1" t="s">
         <v>733</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C112" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C112" s="4">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>734</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -8649,9 +8832,10 @@
       <c r="G112" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H112" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I112" s="7"/>
       <c r="J112" s="1" t="s">
         <v>78</v>
       </c>
@@ -8661,6 +8845,7 @@
       <c r="L112" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M112" s="7"/>
       <c r="N112" s="1" t="s">
         <v>736</v>
       </c>
@@ -8668,17 +8853,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="1" t="s">
         <v>737</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C113" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="C113" s="4">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>639</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -8690,9 +8875,10 @@
       <c r="G113" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H113" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I113" s="7"/>
       <c r="J113" s="1" t="s">
         <v>78</v>
       </c>
@@ -8702,6 +8888,7 @@
       <c r="L113" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M113" s="7"/>
       <c r="N113" s="1" t="s">
         <v>482</v>
       </c>
@@ -8709,17 +8896,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C114" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="C114" s="4">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>740</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -8731,9 +8918,10 @@
       <c r="G114" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H114" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I114" s="7"/>
       <c r="J114" s="1" t="s">
         <v>78</v>
       </c>
@@ -8743,6 +8931,7 @@
       <c r="L114" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M114" s="7"/>
       <c r="N114" s="1" t="s">
         <v>742</v>
       </c>
@@ -8750,17 +8939,17 @@
         <v>743</v>
       </c>
     </row>
-    <row r="115">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="1" t="s">
         <v>744</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C115" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="C115" s="4">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>502</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -8772,10 +8961,10 @@
       <c r="G115" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I115" s="1" t="s">
+      <c r="H115" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I115" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J115" s="1" t="s">
@@ -8787,7 +8976,7 @@
       <c r="L115" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M115" s="1" t="s">
+      <c r="M115" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N115" s="1" t="s">
@@ -8797,17 +8986,17 @@
         <v>746</v>
       </c>
     </row>
-    <row r="116">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="1" t="s">
         <v>747</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C116" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="C116" s="4">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>748</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -8819,10 +9008,10 @@
       <c r="G116" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I116" s="1" t="s">
+      <c r="H116" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>751</v>
       </c>
       <c r="J116" s="1" t="s">
@@ -8834,7 +9023,7 @@
       <c r="L116" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="M116" s="3" t="s">
         <v>751</v>
       </c>
       <c r="N116" s="1" t="s">
@@ -8844,17 +9033,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="117">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="1" t="s">
         <v>752</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C117" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="C117" s="4">
+        <v>2</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>753</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -8866,10 +9055,10 @@
       <c r="G117" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I117" s="1" t="s">
+      <c r="H117" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I117" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J117" s="1" t="s">
@@ -8881,7 +9070,7 @@
       <c r="L117" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M117" s="1" t="s">
+      <c r="M117" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N117" s="1" t="s">
@@ -8891,17 +9080,17 @@
         <v>482</v>
       </c>
     </row>
-    <row r="118">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="1" t="s">
         <v>755</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="C118" s="4">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>756</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -8913,9 +9102,10 @@
       <c r="G118" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I118" s="7"/>
       <c r="J118" s="1" t="s">
         <v>78</v>
       </c>
@@ -8925,6 +9115,7 @@
       <c r="L118" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M118" s="7"/>
       <c r="N118" s="1" t="s">
         <v>759</v>
       </c>
@@ -8932,17 +9123,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
       <c r="A119" s="1" t="s">
         <v>760</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C119" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="C119" s="4">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>761</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -8954,9 +9145,10 @@
       <c r="G119" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H119" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I119" s="7"/>
       <c r="J119" s="1" t="s">
         <v>78</v>
       </c>
@@ -8966,6 +9158,7 @@
       <c r="L119" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M119" s="7"/>
       <c r="N119" s="1" t="s">
         <v>763</v>
       </c>
@@ -8973,17 +9166,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
       <c r="A120" s="1" t="s">
         <v>764</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C120" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="C120" s="4">
+        <v>2</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>765</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -8995,10 +9188,10 @@
       <c r="G120" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I120" s="1" t="s">
+      <c r="H120" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I120" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J120" s="1" t="s">
@@ -9010,7 +9203,7 @@
       <c r="L120" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M120" s="1" t="s">
+      <c r="M120" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N120" s="1" t="s">
@@ -9020,17 +9213,17 @@
         <v>767</v>
       </c>
     </row>
-    <row r="121">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
       <c r="A121" s="1" t="s">
         <v>768</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C121" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="C121" s="4">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>540</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -9042,9 +9235,10 @@
       <c r="G121" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H121" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I121" s="7"/>
       <c r="J121" s="1" t="s">
         <v>78</v>
       </c>
@@ -9054,6 +9248,7 @@
       <c r="L121" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M121" s="7"/>
       <c r="N121" s="1" t="s">
         <v>542</v>
       </c>
@@ -9061,17 +9256,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="122">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
       <c r="A122" s="1" t="s">
         <v>770</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C122" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="C122" s="4">
+        <v>2</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>771</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -9083,9 +9278,10 @@
       <c r="G122" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H122" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I122" s="7"/>
       <c r="J122" s="1" t="s">
         <v>78</v>
       </c>
@@ -9095,6 +9291,7 @@
       <c r="L122" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M122" s="7"/>
       <c r="N122" s="1" t="s">
         <v>773</v>
       </c>
@@ -9102,17 +9299,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
       <c r="A123" s="1" t="s">
         <v>774</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C123" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="C123" s="4">
+        <v>2</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>775</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -9124,9 +9321,10 @@
       <c r="G123" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H123" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I123" s="7"/>
       <c r="J123" s="1" t="s">
         <v>78</v>
       </c>
@@ -9136,6 +9334,7 @@
       <c r="L123" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M123" s="7"/>
       <c r="N123" s="1" t="s">
         <v>777</v>
       </c>
@@ -9143,17 +9342,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
       <c r="A124" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C124" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="C124" s="4">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>779</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -9165,10 +9364,10 @@
       <c r="G124" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="H124" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I124" s="1" t="s">
+      <c r="H124" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I124" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J124" s="1" t="s">
@@ -9180,7 +9379,7 @@
       <c r="L124" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M124" s="1" t="s">
+      <c r="M124" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N124" s="1" t="s">
@@ -9190,17 +9389,17 @@
         <v>781</v>
       </c>
     </row>
-    <row r="125">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
       <c r="A125" s="1" t="s">
         <v>782</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C125" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="C125" s="4">
+        <v>2</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>783</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -9212,10 +9411,10 @@
       <c r="G125" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I125" s="1" t="s">
+      <c r="H125" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I125" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J125" s="1" t="s">
@@ -9227,7 +9426,7 @@
       <c r="L125" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M125" s="1" t="s">
+      <c r="M125" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N125" s="1" t="s">
@@ -9237,17 +9436,17 @@
         <v>786</v>
       </c>
     </row>
-    <row r="126">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
       <c r="A126" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C126" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="C126" s="4">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>788</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -9259,9 +9458,10 @@
       <c r="G126" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H126" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I126" s="7"/>
       <c r="J126" s="1" t="s">
         <v>78</v>
       </c>
@@ -9271,6 +9471,7 @@
       <c r="L126" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M126" s="7"/>
       <c r="N126" s="1" t="s">
         <v>790</v>
       </c>
@@ -9278,17 +9479,17 @@
         <v>725</v>
       </c>
     </row>
-    <row r="127">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
       <c r="A127" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C127" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="C127" s="4">
+        <v>1</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -9300,10 +9501,10 @@
       <c r="G127" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="H127" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="I127" s="1" t="s">
+      <c r="H127" s="8">
+        <v>50</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>795</v>
       </c>
       <c r="J127" s="1" t="s">
@@ -9315,7 +9516,7 @@
       <c r="L127" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M127" s="1" t="s">
+      <c r="M127" s="3" t="s">
         <v>795</v>
       </c>
       <c r="N127" s="1" t="s">
@@ -9325,17 +9526,17 @@
         <v>794</v>
       </c>
     </row>
-    <row r="128">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
       <c r="A128" s="1" t="s">
         <v>796</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C128" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="C128" s="4">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>578</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -9347,10 +9548,10 @@
       <c r="G128" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I128" s="1" t="s">
+      <c r="H128" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I128" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J128" s="1" t="s">
@@ -9362,7 +9563,7 @@
       <c r="L128" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="M128" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N128" s="1" t="s">
@@ -9372,17 +9573,17 @@
         <v>581</v>
       </c>
     </row>
-    <row r="129">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
       <c r="A129" s="1" t="s">
         <v>798</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C129" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D129" s="1" t="s">
+      <c r="C129" s="4">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>799</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -9394,9 +9595,10 @@
       <c r="G129" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H129" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I129" s="7"/>
       <c r="J129" s="1" t="s">
         <v>78</v>
       </c>
@@ -9406,6 +9608,7 @@
       <c r="L129" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="M129" s="7"/>
       <c r="N129" s="1" t="s">
         <v>801</v>
       </c>
@@ -9413,17 +9616,17 @@
         <v>802</v>
       </c>
     </row>
-    <row r="130">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
       <c r="A130" s="1" t="s">
         <v>803</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C130" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D130" s="1" t="s">
+      <c r="C130" s="4">
+        <v>2</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>650</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -9435,10 +9638,10 @@
       <c r="G130" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I130" s="1" t="s">
+      <c r="H130" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I130" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J130" s="1" t="s">
@@ -9450,7 +9653,7 @@
       <c r="L130" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M130" s="1" t="s">
+      <c r="M130" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N130" s="1" t="s">
@@ -9460,17 +9663,17 @@
         <v>805</v>
       </c>
     </row>
-    <row r="131">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
       <c r="A131" s="1" t="s">
         <v>806</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C131" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="C131" s="4">
+        <v>2</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>807</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -9482,10 +9685,10 @@
       <c r="G131" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="H131" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="I131" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J131" s="1" t="s">
@@ -9497,7 +9700,7 @@
       <c r="L131" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="M131" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N131" s="1" t="s">
@@ -9507,17 +9710,17 @@
         <v>809</v>
       </c>
     </row>
-    <row r="132">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
       <c r="A132" s="1" t="s">
         <v>810</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C132" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="C132" s="4">
+        <v>3</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>583</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -9529,10 +9732,10 @@
       <c r="G132" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="H132" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="I132" s="3" t="s">
         <v>814</v>
       </c>
       <c r="J132" s="1" t="s">
@@ -9544,7 +9747,7 @@
       <c r="L132" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="M132" s="1" t="s">
+      <c r="M132" s="3" t="s">
         <v>814</v>
       </c>
       <c r="N132" s="1" t="s">
@@ -9554,17 +9757,17 @@
         <v>813</v>
       </c>
     </row>
-    <row r="133">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
       <c r="A133" s="1" t="s">
         <v>815</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C133" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="C133" s="4">
+        <v>2</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>816</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -9576,10 +9779,10 @@
       <c r="G133" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H133" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="I133" s="3" t="s">
         <v>820</v>
       </c>
       <c r="J133" s="1" t="s">
@@ -9591,7 +9794,7 @@
       <c r="L133" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M133" s="1" t="s">
+      <c r="M133" s="3" t="s">
         <v>820</v>
       </c>
       <c r="N133" s="1" t="s">
@@ -9601,17 +9804,17 @@
         <v>819</v>
       </c>
     </row>
-    <row r="134">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
       <c r="A134" s="1" t="s">
         <v>821</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C134" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="C134" s="4">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>457</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -9623,10 +9826,10 @@
       <c r="G134" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I134" s="1" t="s">
+      <c r="H134" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J134" s="1" t="s">
@@ -9638,7 +9841,7 @@
       <c r="L134" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M134" s="1" t="s">
+      <c r="M134" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N134" s="1" t="s">
@@ -9648,17 +9851,17 @@
         <v>823</v>
       </c>
     </row>
-    <row r="135">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
       <c r="A135" s="1" t="s">
         <v>824</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C135" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D135" s="1" t="s">
+      <c r="C135" s="4">
+        <v>2</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>426</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -9670,10 +9873,10 @@
       <c r="G135" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I135" s="1" t="s">
+      <c r="H135" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I135" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J135" s="1" t="s">
@@ -9685,7 +9888,7 @@
       <c r="L135" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M135" s="1" t="s">
+      <c r="M135" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N135" s="1" t="s">
@@ -9695,17 +9898,17 @@
         <v>826</v>
       </c>
     </row>
-    <row r="136">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
       <c r="A136" s="1" t="s">
         <v>827</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C136" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D136" s="1" t="s">
+      <c r="C136" s="4">
+        <v>2</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>628</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -9717,9 +9920,10 @@
       <c r="G136" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H136" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I136" s="7"/>
       <c r="J136" s="1" t="s">
         <v>78</v>
       </c>
@@ -9729,6 +9933,7 @@
       <c r="L136" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M136" s="7"/>
       <c r="N136" s="1" t="s">
         <v>829</v>
       </c>
@@ -9736,17 +9941,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
       <c r="A137" s="1" t="s">
         <v>830</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C137" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D137" s="1" t="s">
+      <c r="C137" s="4">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -9758,9 +9963,10 @@
       <c r="G137" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H137" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I137" s="7"/>
       <c r="J137" s="1" t="s">
         <v>78</v>
       </c>
@@ -9770,6 +9976,7 @@
       <c r="L137" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M137" s="7"/>
       <c r="N137" s="1" t="s">
         <v>474</v>
       </c>
@@ -9777,17 +9984,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
       <c r="A138" s="1" t="s">
         <v>832</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C138" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="C138" s="4">
+        <v>2</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>729</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -9799,10 +10006,10 @@
       <c r="G138" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I138" s="1" t="s">
+      <c r="H138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J138" s="1" t="s">
@@ -9814,7 +10021,7 @@
       <c r="L138" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M138" s="1" t="s">
+      <c r="M138" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N138" s="1" t="s">
@@ -9824,17 +10031,17 @@
         <v>834</v>
       </c>
     </row>
-    <row r="139">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
       <c r="A139" s="1" t="s">
         <v>835</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C139" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D139" s="1" t="s">
+      <c r="C139" s="4">
+        <v>2</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>836</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -9846,9 +10053,10 @@
       <c r="G139" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H139" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I139" s="7"/>
       <c r="J139" s="1" t="s">
         <v>78</v>
       </c>
@@ -9858,6 +10066,7 @@
       <c r="L139" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M139" s="7"/>
       <c r="N139" s="1" t="s">
         <v>838</v>
       </c>
@@ -9865,17 +10074,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="140">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
       <c r="A140" s="1" t="s">
         <v>839</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C140" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D140" s="1" t="s">
+      <c r="C140" s="4">
+        <v>2</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -9887,9 +10096,10 @@
       <c r="G140" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I140" s="7"/>
       <c r="J140" s="1" t="s">
         <v>78</v>
       </c>
@@ -9899,6 +10109,7 @@
       <c r="L140" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M140" s="7"/>
       <c r="N140" s="1" t="s">
         <v>841</v>
       </c>
@@ -9906,17 +10117,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="141">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
       <c r="A141" s="1" t="s">
         <v>842</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C141" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D141" s="1" t="s">
+      <c r="C141" s="4">
+        <v>2</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>843</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -9928,9 +10139,10 @@
       <c r="G141" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H141" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I141" s="7"/>
       <c r="J141" s="1" t="s">
         <v>78</v>
       </c>
@@ -9940,6 +10152,7 @@
       <c r="L141" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M141" s="7"/>
       <c r="N141" s="1" t="s">
         <v>845</v>
       </c>
@@ -9947,17 +10160,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="142">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
       <c r="A142" s="1" t="s">
         <v>846</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C142" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D142" s="1" t="s">
+      <c r="C142" s="4">
+        <v>3</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>847</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -9969,9 +10182,10 @@
       <c r="G142" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I142" s="7"/>
       <c r="J142" s="1" t="s">
         <v>78</v>
       </c>
@@ -9981,6 +10195,7 @@
       <c r="L142" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M142" s="7"/>
       <c r="N142" s="1" t="s">
         <v>482</v>
       </c>
@@ -9988,17 +10203,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="143">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
       <c r="A143" s="1" t="s">
         <v>849</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C143" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="C143" s="4">
+        <v>2</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>502</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -10010,10 +10225,10 @@
       <c r="G143" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I143" s="1" t="s">
+      <c r="H143" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J143" s="1" t="s">
@@ -10025,7 +10240,7 @@
       <c r="L143" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M143" s="1" t="s">
+      <c r="M143" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N143" s="1" t="s">
@@ -10035,17 +10250,17 @@
         <v>851</v>
       </c>
     </row>
-    <row r="144">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
       <c r="A144" s="1" t="s">
         <v>852</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C144" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D144" s="1" t="s">
+      <c r="C144" s="4">
+        <v>2</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>660</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -10057,9 +10272,10 @@
       <c r="G144" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I144" s="7"/>
       <c r="J144" s="1" t="s">
         <v>78</v>
       </c>
@@ -10069,6 +10285,7 @@
       <c r="L144" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M144" s="7"/>
       <c r="N144" s="1" t="s">
         <v>854</v>
       </c>
@@ -10076,17 +10293,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
       <c r="A145" s="1" t="s">
         <v>855</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C145" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D145" s="1" t="s">
+      <c r="C145" s="4">
+        <v>1</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -10098,10 +10315,10 @@
       <c r="G145" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I145" s="1" t="s">
+      <c r="H145" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>858</v>
       </c>
       <c r="J145" s="1" t="s">
@@ -10113,7 +10330,7 @@
       <c r="L145" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M145" s="1" t="s">
+      <c r="M145" s="3" t="s">
         <v>858</v>
       </c>
       <c r="N145" s="1" t="s">
@@ -10123,17 +10340,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="146">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
       <c r="A146" s="1" t="s">
         <v>860</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C146" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D146" s="1" t="s">
+      <c r="C146" s="4">
+        <v>2</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>861</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -10145,9 +10362,10 @@
       <c r="G146" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H146" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I146" s="7"/>
       <c r="J146" s="1" t="s">
         <v>78</v>
       </c>
@@ -10157,6 +10375,7 @@
       <c r="L146" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M146" s="7"/>
       <c r="N146" s="1" t="s">
         <v>482</v>
       </c>
@@ -10164,17 +10383,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="147">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
       <c r="A147" s="1" t="s">
         <v>863</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C147" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D147" s="1" t="s">
+      <c r="C147" s="4">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>864</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -10186,10 +10405,10 @@
       <c r="G147" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I147" s="1" t="s">
+      <c r="H147" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I147" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J147" s="1" t="s">
@@ -10201,7 +10420,7 @@
       <c r="L147" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M147" s="1" t="s">
+      <c r="M147" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N147" s="1" t="s">
@@ -10211,17 +10430,17 @@
         <v>866</v>
       </c>
     </row>
-    <row r="148">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
       <c r="A148" s="1" t="s">
         <v>867</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C148" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="C148" s="4">
+        <v>2</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>868</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -10233,10 +10452,10 @@
       <c r="G148" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="H148" s="1">
-        <v>2025.0</v>
-      </c>
-      <c r="I148" s="1" t="s">
+      <c r="H148" s="4">
+        <v>2025</v>
+      </c>
+      <c r="I148" s="3" t="s">
         <v>872</v>
       </c>
       <c r="J148" s="1" t="s">
@@ -10248,7 +10467,7 @@
       <c r="L148" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M148" s="1" t="s">
+      <c r="M148" s="3" t="s">
         <v>872</v>
       </c>
       <c r="N148" s="1" t="s">
@@ -10258,17 +10477,17 @@
         <v>871</v>
       </c>
     </row>
-    <row r="149">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
       <c r="A149" s="1" t="s">
         <v>873</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C149" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D149" s="1" t="s">
+      <c r="C149" s="4">
+        <v>2</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -10280,9 +10499,10 @@
       <c r="G149" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H149" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I149" s="7"/>
       <c r="J149" s="1" t="s">
         <v>78</v>
       </c>
@@ -10292,6 +10512,7 @@
       <c r="L149" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M149" s="7"/>
       <c r="N149" s="1" t="s">
         <v>875</v>
       </c>
@@ -10299,17 +10520,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
       <c r="A150" s="1" t="s">
         <v>876</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C150" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D150" s="1" t="s">
+      <c r="C150" s="4">
+        <v>2</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>877</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -10321,9 +10542,10 @@
       <c r="G150" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H150" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I150" s="7"/>
       <c r="J150" s="1" t="s">
         <v>78</v>
       </c>
@@ -10333,6 +10555,7 @@
       <c r="L150" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M150" s="7"/>
       <c r="N150" s="1" t="s">
         <v>879</v>
       </c>
@@ -10340,17 +10563,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="151">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
       <c r="A151" s="1" t="s">
         <v>880</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C151" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="C151" s="4">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>680</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -10362,9 +10585,10 @@
       <c r="G151" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H151" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I151" s="7"/>
       <c r="J151" s="1" t="s">
         <v>78</v>
       </c>
@@ -10374,6 +10598,7 @@
       <c r="L151" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M151" s="7"/>
       <c r="N151" s="1" t="s">
         <v>882</v>
       </c>
@@ -10381,17 +10606,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
       <c r="A152" s="1" t="s">
         <v>883</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C152" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D152" s="1" t="s">
+      <c r="C152" s="4">
+        <v>1</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -10403,10 +10628,10 @@
       <c r="G152" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I152" s="1" t="s">
+      <c r="H152" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>886</v>
       </c>
       <c r="J152" s="1" t="s">
@@ -10418,7 +10643,7 @@
       <c r="L152" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M152" s="1" t="s">
+      <c r="M152" s="3" t="s">
         <v>886</v>
       </c>
       <c r="N152" s="1" t="s">
@@ -10428,17 +10653,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="153">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
       <c r="A153" s="1" t="s">
         <v>887</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C153" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="C153" s="4">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>888</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -10450,9 +10675,10 @@
       <c r="G153" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H153" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H153" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I153" s="7"/>
       <c r="J153" s="1" t="s">
         <v>78</v>
       </c>
@@ -10462,6 +10688,7 @@
       <c r="L153" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M153" s="7"/>
       <c r="N153" s="1" t="s">
         <v>890</v>
       </c>
@@ -10469,17 +10696,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
       <c r="A154" s="1" t="s">
         <v>891</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C154" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="C154" s="4">
+        <v>2</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>892</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -10491,9 +10718,10 @@
       <c r="G154" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H154" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H154" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I154" s="7"/>
       <c r="J154" s="1" t="s">
         <v>78</v>
       </c>
@@ -10503,6 +10731,7 @@
       <c r="L154" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M154" s="7"/>
       <c r="N154" s="1" t="s">
         <v>894</v>
       </c>
@@ -10510,17 +10739,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="155">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
       <c r="A155" s="1" t="s">
         <v>895</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C155" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D155" s="1" t="s">
+      <c r="C155" s="4">
+        <v>2</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>583</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -10532,9 +10761,10 @@
       <c r="G155" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H155" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I155" s="7"/>
       <c r="J155" s="1" t="s">
         <v>78</v>
       </c>
@@ -10544,6 +10774,7 @@
       <c r="L155" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M155" s="7"/>
       <c r="N155" s="1" t="s">
         <v>897</v>
       </c>
@@ -10551,17 +10782,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="156">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
       <c r="A156" s="1" t="s">
         <v>898</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C156" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D156" s="1" t="s">
+      <c r="C156" s="4">
+        <v>2</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>779</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -10573,10 +10804,10 @@
       <c r="G156" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="H156" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I156" s="1" t="s">
+      <c r="H156" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J156" s="1" t="s">
@@ -10588,7 +10819,7 @@
       <c r="L156" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M156" s="1" t="s">
+      <c r="M156" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N156" s="1" t="s">
@@ -10598,17 +10829,17 @@
         <v>900</v>
       </c>
     </row>
-    <row r="157">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
       <c r="A157" s="1" t="s">
         <v>901</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C157" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D157" s="1" t="s">
+      <c r="C157" s="4">
+        <v>3</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>902</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -10620,10 +10851,10 @@
       <c r="G157" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H157" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="I157" s="3" t="s">
         <v>813</v>
       </c>
       <c r="J157" s="1" t="s">
@@ -10635,7 +10866,7 @@
       <c r="L157" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M157" s="1" t="s">
+      <c r="M157" s="3" t="s">
         <v>813</v>
       </c>
       <c r="N157" s="1" t="s">
@@ -10645,17 +10876,17 @@
         <v>812</v>
       </c>
     </row>
-    <row r="158">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
       <c r="A158" s="1" t="s">
         <v>904</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C158" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D158" s="1" t="s">
+      <c r="C158" s="4">
+        <v>2</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>905</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -10667,10 +10898,10 @@
       <c r="G158" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I158" s="1" t="s">
+      <c r="H158" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I158" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J158" s="1" t="s">
@@ -10682,7 +10913,7 @@
       <c r="L158" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M158" s="1" t="s">
+      <c r="M158" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N158" s="1" t="s">
@@ -10692,17 +10923,17 @@
         <v>908</v>
       </c>
     </row>
-    <row r="159">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
       <c r="A159" s="1" t="s">
         <v>909</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C159" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D159" s="1" t="s">
+      <c r="C159" s="4">
+        <v>2</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>578</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -10714,10 +10945,10 @@
       <c r="G159" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I159" s="1" t="s">
+      <c r="H159" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I159" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J159" s="1" t="s">
@@ -10729,7 +10960,7 @@
       <c r="L159" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M159" s="1" t="s">
+      <c r="M159" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N159" s="1" t="s">
@@ -10739,17 +10970,17 @@
         <v>581</v>
       </c>
     </row>
-    <row r="160">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
       <c r="A160" s="1" t="s">
         <v>910</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C160" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D160" s="1" t="s">
+      <c r="C160" s="4">
+        <v>2</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>799</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -10761,9 +10992,10 @@
       <c r="G160" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H160" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I160" s="7"/>
       <c r="J160" s="1" t="s">
         <v>78</v>
       </c>
@@ -10773,6 +11005,7 @@
       <c r="L160" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="M160" s="7"/>
       <c r="N160" s="1" t="s">
         <v>912</v>
       </c>
@@ -10780,17 +11013,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
       <c r="A161" s="1" t="s">
         <v>913</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C161" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D161" s="1" t="s">
+      <c r="C161" s="4">
+        <v>1</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -10802,10 +11035,10 @@
       <c r="G161" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I161" s="1" t="s">
+      <c r="H161" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I161" s="3" t="s">
         <v>918</v>
       </c>
       <c r="J161" s="1" t="s">
@@ -10817,7 +11050,7 @@
       <c r="L161" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M161" s="1" t="s">
+      <c r="M161" s="3" t="s">
         <v>918</v>
       </c>
       <c r="N161" s="1" t="s">
@@ -10827,17 +11060,17 @@
         <v>917</v>
       </c>
     </row>
-    <row r="162">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
       <c r="A162" s="1" t="s">
         <v>919</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C162" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D162" s="1" t="s">
+      <c r="C162" s="4">
+        <v>1</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -10849,10 +11082,10 @@
       <c r="G162" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I162" s="1" t="s">
+      <c r="H162" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I162" s="3" t="s">
         <v>922</v>
       </c>
       <c r="J162" s="1" t="s">
@@ -10864,7 +11097,7 @@
       <c r="L162" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M162" s="1" t="s">
+      <c r="M162" s="3" t="s">
         <v>922</v>
       </c>
       <c r="N162" s="1" t="s">
@@ -10874,17 +11107,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="163">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
       <c r="A163" s="1" t="s">
         <v>923</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C163" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D163" s="1" t="s">
+      <c r="C163" s="4">
+        <v>2</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>924</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -10896,10 +11129,10 @@
       <c r="G163" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I163" s="1" t="s">
+      <c r="H163" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I163" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J163" s="1" t="s">
@@ -10911,7 +11144,7 @@
       <c r="L163" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M163" s="1" t="s">
+      <c r="M163" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N163" s="1" t="s">
@@ -10921,17 +11154,17 @@
         <v>926</v>
       </c>
     </row>
-    <row r="164">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
       <c r="A164" s="1" t="s">
         <v>927</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C164" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D164" s="1" t="s">
+      <c r="C164" s="4">
+        <v>2</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>928</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -10943,10 +11176,10 @@
       <c r="G164" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I164" s="1" t="s">
+      <c r="H164" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I164" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J164" s="1" t="s">
@@ -10958,7 +11191,7 @@
       <c r="L164" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M164" s="1" t="s">
+      <c r="M164" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N164" s="1" t="s">
@@ -10968,17 +11201,17 @@
         <v>931</v>
       </c>
     </row>
-    <row r="165">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="1" t="s">
         <v>932</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C165" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D165" s="1" t="s">
+      <c r="C165" s="4">
+        <v>2</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>555</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -10990,9 +11223,10 @@
       <c r="G165" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H165" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I165" s="7"/>
       <c r="J165" s="1" t="s">
         <v>78</v>
       </c>
@@ -11002,6 +11236,7 @@
       <c r="L165" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="M165" s="7"/>
       <c r="N165" s="1" t="s">
         <v>934</v>
       </c>
@@ -11009,17 +11244,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="1" t="s">
         <v>935</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C166" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D166" s="1" t="s">
+      <c r="C166" s="4">
+        <v>2</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>495</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -11031,9 +11266,10 @@
       <c r="G166" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H166" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I166" s="7"/>
       <c r="J166" s="1" t="s">
         <v>78</v>
       </c>
@@ -11043,6 +11279,7 @@
       <c r="L166" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="M166" s="7"/>
       <c r="N166" s="1" t="s">
         <v>937</v>
       </c>
@@ -11050,17 +11287,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="167">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="1" t="s">
         <v>938</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C167" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D167" s="1" t="s">
+      <c r="C167" s="4">
+        <v>2</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>939</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -11072,10 +11309,10 @@
       <c r="G167" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H167" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I167" s="1" t="s">
+      <c r="H167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I167" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J167" s="1" t="s">
@@ -11087,7 +11324,7 @@
       <c r="L167" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M167" s="1" t="s">
+      <c r="M167" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N167" s="1" t="s">
@@ -11097,17 +11334,17 @@
         <v>482</v>
       </c>
     </row>
-    <row r="168">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="1" t="s">
         <v>941</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C168" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="C168" s="4">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>942</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -11119,10 +11356,10 @@
       <c r="G168" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="H168" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I168" s="1" t="s">
+      <c r="H168" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I168" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J168" s="1" t="s">
@@ -11134,7 +11371,7 @@
       <c r="L168" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M168" s="1" t="s">
+      <c r="M168" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N168" s="1" t="s">
@@ -11144,17 +11381,17 @@
         <v>945</v>
       </c>
     </row>
-    <row r="169">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="1" t="s">
         <v>946</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C169" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="C169" s="4">
+        <v>2</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>947</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -11166,10 +11403,10 @@
       <c r="G169" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I169" s="1" t="s">
+      <c r="H169" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I169" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J169" s="1" t="s">
@@ -11181,7 +11418,7 @@
       <c r="L169" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M169" s="1" t="s">
+      <c r="M169" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N169" s="1" t="s">
@@ -11191,17 +11428,17 @@
         <v>950</v>
       </c>
     </row>
-    <row r="170">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="1" t="s">
         <v>951</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C170" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D170" s="1" t="s">
+      <c r="C170" s="4">
+        <v>2</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>952</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -11213,10 +11450,10 @@
       <c r="G170" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I170" s="1" t="s">
+      <c r="H170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I170" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J170" s="1" t="s">
@@ -11228,7 +11465,7 @@
       <c r="L170" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M170" s="1" t="s">
+      <c r="M170" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N170" s="1" t="s">
@@ -11238,17 +11475,17 @@
         <v>955</v>
       </c>
     </row>
-    <row r="171">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="1" t="s">
         <v>956</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C171" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D171" s="1" t="s">
+      <c r="C171" s="4">
+        <v>3</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>902</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -11260,10 +11497,10 @@
       <c r="G171" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I171" s="1" t="s">
+      <c r="H171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I171" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J171" s="1" t="s">
@@ -11275,7 +11512,7 @@
       <c r="L171" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M171" s="1" t="s">
+      <c r="M171" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N171" s="1" t="s">
@@ -11285,17 +11522,17 @@
         <v>958</v>
       </c>
     </row>
-    <row r="172">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="1" t="s">
         <v>959</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C172" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D172" s="1" t="s">
+      <c r="C172" s="4">
+        <v>2</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>960</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -11307,10 +11544,10 @@
       <c r="G172" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I172" s="1" t="s">
+      <c r="H172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I172" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J172" s="1" t="s">
@@ -11322,7 +11559,7 @@
       <c r="L172" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M172" s="1" t="s">
+      <c r="M172" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N172" s="1" t="s">
@@ -11332,17 +11569,17 @@
         <v>962</v>
       </c>
     </row>
-    <row r="173">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="1" t="s">
         <v>963</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C173" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D173" s="1" t="s">
+      <c r="C173" s="4">
+        <v>2</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>964</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -11354,10 +11591,10 @@
       <c r="G173" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I173" s="1" t="s">
+      <c r="H173" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I173" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J173" s="1" t="s">
@@ -11369,7 +11606,7 @@
       <c r="L173" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M173" s="1" t="s">
+      <c r="M173" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N173" s="1" t="s">
@@ -11379,17 +11616,17 @@
         <v>967</v>
       </c>
     </row>
-    <row r="174">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="1" t="s">
         <v>968</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C174" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D174" s="1" t="s">
+      <c r="C174" s="4">
+        <v>2</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>969</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -11401,10 +11638,10 @@
       <c r="G174" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H174" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I174" s="1" t="s">
+      <c r="H174" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I174" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J174" s="1" t="s">
@@ -11416,7 +11653,7 @@
       <c r="L174" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M174" s="1" t="s">
+      <c r="M174" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N174" s="1" t="s">
@@ -11426,17 +11663,17 @@
         <v>482</v>
       </c>
     </row>
-    <row r="175">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="1" t="s">
         <v>972</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C175" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D175" s="1" t="s">
+      <c r="C175" s="4">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>650</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -11448,10 +11685,10 @@
       <c r="G175" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I175" s="1" t="s">
+      <c r="H175" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I175" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J175" s="1" t="s">
@@ -11463,7 +11700,7 @@
       <c r="L175" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M175" s="1" t="s">
+      <c r="M175" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N175" s="1" t="s">
@@ -11473,17 +11710,17 @@
         <v>974</v>
       </c>
     </row>
-    <row r="176">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="1" t="s">
         <v>975</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C176" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D176" s="1" t="s">
+      <c r="C176" s="4">
+        <v>2</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>976</v>
       </c>
       <c r="E176" s="1" t="s">
@@ -11495,10 +11732,10 @@
       <c r="G176" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I176" s="1" t="s">
+      <c r="H176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I176" s="3" t="s">
         <v>979</v>
       </c>
       <c r="J176" s="1" t="s">
@@ -11510,7 +11747,7 @@
       <c r="L176" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M176" s="1" t="s">
+      <c r="M176" s="3" t="s">
         <v>979</v>
       </c>
       <c r="N176" s="1" t="s">
@@ -11520,17 +11757,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="177">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="1" t="s">
         <v>980</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C177" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D177" s="1" t="s">
+      <c r="C177" s="4">
+        <v>2</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>976</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -11542,9 +11779,10 @@
       <c r="G177" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H177" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I177" s="7"/>
       <c r="J177" s="1" t="s">
         <v>23</v>
       </c>
@@ -11554,6 +11792,7 @@
       <c r="L177" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M177" s="7"/>
       <c r="N177" s="1" t="s">
         <v>482</v>
       </c>
@@ -11561,17 +11800,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="178">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="1" t="s">
         <v>982</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C178" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D178" s="1" t="s">
+      <c r="C178" s="4">
+        <v>2</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>983</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -11583,10 +11822,10 @@
       <c r="G178" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I178" s="1" t="s">
+      <c r="H178" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I178" s="3" t="s">
         <v>986</v>
       </c>
       <c r="J178" s="1" t="s">
@@ -11598,7 +11837,7 @@
       <c r="L178" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M178" s="1" t="s">
+      <c r="M178" s="3" t="s">
         <v>986</v>
       </c>
       <c r="N178" s="1" t="s">
@@ -11608,17 +11847,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="179">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="1" t="s">
         <v>987</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C179" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D179" s="1" t="s">
+      <c r="C179" s="4">
+        <v>2</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>988</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -11630,9 +11869,10 @@
       <c r="G179" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H179" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I179" s="7"/>
       <c r="J179" s="1" t="s">
         <v>23</v>
       </c>
@@ -11642,6 +11882,7 @@
       <c r="L179" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M179" s="7"/>
       <c r="N179" s="1" t="s">
         <v>482</v>
       </c>
@@ -11649,17 +11890,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="180">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="1" t="s">
         <v>990</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C180" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D180" s="1" t="s">
+      <c r="C180" s="4">
+        <v>2</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -11671,10 +11912,10 @@
       <c r="G180" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I180" s="1" t="s">
+      <c r="H180" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I180" s="3" t="s">
         <v>993</v>
       </c>
       <c r="J180" s="1" t="s">
@@ -11686,7 +11927,7 @@
       <c r="L180" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M180" s="1" t="s">
+      <c r="M180" s="3" t="s">
         <v>993</v>
       </c>
       <c r="N180" s="1" t="s">
@@ -11696,18 +11937,18 @@
         <v>388</v>
       </c>
     </row>
-    <row r="181">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="1" t="s">
         <v>994</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="C181" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D181" s="1">
-        <v>2.0</v>
+      <c r="C181" s="4">
+        <v>2</v>
+      </c>
+      <c r="D181" s="4">
+        <v>2</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>697</v>
@@ -11718,10 +11959,10 @@
       <c r="G181" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I181" s="1" t="s">
+      <c r="H181" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I181" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J181" s="1" t="s">
@@ -11733,7 +11974,7 @@
       <c r="L181" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="M181" s="1" t="s">
+      <c r="M181" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N181" s="1" t="s">
@@ -11743,17 +11984,17 @@
         <v>997</v>
       </c>
     </row>
-    <row r="182">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="1" t="s">
         <v>998</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C182" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D182" s="1" t="s">
+      <c r="C182" s="4">
+        <v>2</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>639</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -11765,9 +12006,10 @@
       <c r="G182" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H182" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I182" s="7"/>
       <c r="J182" s="1" t="s">
         <v>23</v>
       </c>
@@ -11777,6 +12019,7 @@
       <c r="L182" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M182" s="7"/>
       <c r="N182" s="1" t="s">
         <v>1000</v>
       </c>
@@ -11784,17 +12027,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="183">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="1" t="s">
         <v>1001</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C183" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="C183" s="4">
+        <v>2</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>1002</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -11806,9 +12049,10 @@
       <c r="G183" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H183" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I183" s="7"/>
       <c r="J183" s="1" t="s">
         <v>23</v>
       </c>
@@ -11818,6 +12062,7 @@
       <c r="L183" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M183" s="7"/>
       <c r="N183" s="1" t="s">
         <v>1004</v>
       </c>
@@ -11825,17 +12070,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="184">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C184" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D184" s="1" t="s">
+      <c r="C184" s="4">
+        <v>2</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>208</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -11847,9 +12092,10 @@
       <c r="G184" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H184" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I184" s="7"/>
       <c r="J184" s="1" t="s">
         <v>23</v>
       </c>
@@ -11859,6 +12105,7 @@
       <c r="L184" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M184" s="7"/>
       <c r="N184" s="1" t="s">
         <v>1007</v>
       </c>
@@ -11866,17 +12113,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="185">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C185" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D185" s="1" t="s">
+      <c r="C185" s="4">
+        <v>2</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>1009</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -11888,9 +12135,10 @@
       <c r="G185" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H185" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I185" s="7"/>
       <c r="J185" s="1" t="s">
         <v>23</v>
       </c>
@@ -11900,6 +12148,7 @@
       <c r="L185" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M185" s="7"/>
       <c r="N185" s="1" t="s">
         <v>1011</v>
       </c>
@@ -11907,17 +12156,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="186">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="1" t="s">
         <v>1012</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C186" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D186" s="1" t="s">
+      <c r="C186" s="4">
+        <v>2</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>1013</v>
       </c>
       <c r="E186" s="1" t="s">
@@ -11929,9 +12178,10 @@
       <c r="G186" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H186" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I186" s="7"/>
       <c r="J186" s="1" t="s">
         <v>23</v>
       </c>
@@ -11941,6 +12191,7 @@
       <c r="L186" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M186" s="7"/>
       <c r="N186" s="1" t="s">
         <v>1015</v>
       </c>
@@ -11948,17 +12199,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="1" t="s">
         <v>1016</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C187" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D187" s="1" t="s">
+      <c r="C187" s="4">
+        <v>2</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>1017</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -11970,9 +12221,10 @@
       <c r="G187" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H187" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I187" s="7"/>
       <c r="J187" s="1" t="s">
         <v>23</v>
       </c>
@@ -11982,6 +12234,7 @@
       <c r="L187" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M187" s="7"/>
       <c r="N187" s="1" t="s">
         <v>1019</v>
       </c>
@@ -11989,17 +12242,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="188">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C188" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D188" s="1" t="s">
+      <c r="C188" s="4">
+        <v>2</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>1021</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -12011,9 +12264,10 @@
       <c r="G188" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H188" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I188" s="7"/>
       <c r="J188" s="1" t="s">
         <v>23</v>
       </c>
@@ -12023,6 +12277,7 @@
       <c r="L188" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M188" s="7"/>
       <c r="N188" s="1" t="s">
         <v>482</v>
       </c>
@@ -12030,17 +12285,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="189">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C189" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D189" s="1" t="s">
+      <c r="C189" s="4">
+        <v>1</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E189" s="1" t="s">
@@ -12052,10 +12307,10 @@
       <c r="G189" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I189" s="1" t="s">
+      <c r="H189" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I189" s="3" t="s">
         <v>1026</v>
       </c>
       <c r="J189" s="1" t="s">
@@ -12067,7 +12322,7 @@
       <c r="L189" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M189" s="1" t="s">
+      <c r="M189" s="3" t="s">
         <v>1026</v>
       </c>
       <c r="N189" s="1" t="s">
@@ -12077,17 +12332,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="190">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="1" t="s">
         <v>1027</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C190" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D190" s="1" t="s">
+      <c r="C190" s="4">
+        <v>2</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>495</v>
       </c>
       <c r="E190" s="1" t="s">
@@ -12099,9 +12354,10 @@
       <c r="G190" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H190" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I190" s="7"/>
       <c r="J190" s="1" t="s">
         <v>23</v>
       </c>
@@ -12111,6 +12367,7 @@
       <c r="L190" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M190" s="7"/>
       <c r="N190" s="1" t="s">
         <v>1029</v>
       </c>
@@ -12118,17 +12375,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="191">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
       <c r="A191" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C191" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D191" s="1" t="s">
+      <c r="C191" s="4">
+        <v>2</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="E191" s="1" t="s">
@@ -12140,10 +12397,10 @@
       <c r="G191" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H191" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I191" s="1" t="s">
+      <c r="H191" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I191" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="J191" s="1" t="s">
@@ -12155,7 +12412,7 @@
       <c r="L191" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M191" s="1" t="s">
+      <c r="M191" s="3" t="s">
         <v>1034</v>
       </c>
       <c r="N191" s="1" t="s">
@@ -12165,17 +12422,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="192">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
       <c r="A192" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C192" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D192" s="1" t="s">
+      <c r="C192" s="4">
+        <v>2</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>1036</v>
       </c>
       <c r="E192" s="1" t="s">
@@ -12187,10 +12444,10 @@
       <c r="G192" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I192" s="1" t="s">
+      <c r="H192" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I192" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J192" s="1" t="s">
@@ -12202,7 +12459,7 @@
       <c r="L192" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M192" s="1" t="s">
+      <c r="M192" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N192" s="1" t="s">
@@ -12212,17 +12469,17 @@
         <v>482</v>
       </c>
     </row>
-    <row r="193">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
       <c r="A193" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C193" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D193" s="1" t="s">
+      <c r="C193" s="4">
+        <v>2</v>
+      </c>
+      <c r="D193" s="2" t="s">
         <v>719</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -12234,9 +12491,10 @@
       <c r="G193" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H193" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H193" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I193" s="7"/>
       <c r="J193" s="1" t="s">
         <v>23</v>
       </c>
@@ -12246,6 +12504,7 @@
       <c r="L193" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M193" s="7"/>
       <c r="N193" s="1" t="s">
         <v>1040</v>
       </c>
@@ -12253,17 +12512,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="194">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
       <c r="A194" s="1" t="s">
         <v>1041</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C194" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D194" s="1" t="s">
+      <c r="C194" s="4">
+        <v>2</v>
+      </c>
+      <c r="D194" s="2" t="s">
         <v>1042</v>
       </c>
       <c r="E194" s="1" t="s">
@@ -12275,10 +12534,10 @@
       <c r="G194" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I194" s="1" t="s">
+      <c r="H194" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I194" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J194" s="1" t="s">
@@ -12290,7 +12549,7 @@
       <c r="L194" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M194" s="1" t="s">
+      <c r="M194" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N194" s="1" t="s">
@@ -12300,17 +12559,17 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="195">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
       <c r="A195" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C195" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D195" s="1" t="s">
+      <c r="C195" s="4">
+        <v>2</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>545</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -12322,9 +12581,10 @@
       <c r="G195" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H195" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I195" s="7"/>
       <c r="J195" s="1" t="s">
         <v>23</v>
       </c>
@@ -12334,6 +12594,7 @@
       <c r="L195" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M195" s="7"/>
       <c r="N195" s="1" t="s">
         <v>1047</v>
       </c>
@@ -12341,17 +12602,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="196">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
       <c r="A196" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C196" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D196" s="1" t="s">
+      <c r="C196" s="4">
+        <v>2</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>1049</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -12363,10 +12624,10 @@
       <c r="G196" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="H196" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I196" s="1" t="s">
+      <c r="H196" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I196" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J196" s="1" t="s">
@@ -12378,7 +12639,7 @@
       <c r="L196" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M196" s="1" t="s">
+      <c r="M196" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N196" s="1" t="s">
@@ -12388,17 +12649,17 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="197">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
       <c r="A197" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C197" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D197" s="1" t="s">
+      <c r="C197" s="4">
+        <v>2</v>
+      </c>
+      <c r="D197" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -12410,9 +12671,10 @@
       <c r="G197" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H197" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I197" s="7"/>
       <c r="J197" s="1" t="s">
         <v>23</v>
       </c>
@@ -12422,6 +12684,7 @@
       <c r="L197" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M197" s="7"/>
       <c r="N197" s="1" t="s">
         <v>1054</v>
       </c>
@@ -12429,17 +12692,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="198">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
       <c r="A198" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C198" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D198" s="1" t="s">
+      <c r="C198" s="4">
+        <v>2</v>
+      </c>
+      <c r="D198" s="2" t="s">
         <v>1056</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -12451,10 +12714,10 @@
       <c r="G198" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I198" s="1" t="s">
+      <c r="H198" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I198" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J198" s="1" t="s">
@@ -12466,7 +12729,7 @@
       <c r="L198" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M198" s="1" t="s">
+      <c r="M198" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N198" s="1" t="s">
@@ -12476,17 +12739,17 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="199">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
       <c r="A199" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C199" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D199" s="1" t="s">
+      <c r="C199" s="4">
+        <v>2</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>1061</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -12498,9 +12761,10 @@
       <c r="G199" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="H199" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I199" s="7"/>
       <c r="J199" s="1" t="s">
         <v>23</v>
       </c>
@@ -12510,6 +12774,7 @@
       <c r="L199" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="M199" s="7"/>
       <c r="N199" s="1" t="s">
         <v>1063</v>
       </c>
@@ -12517,17 +12782,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="200">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
       <c r="A200" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C200" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D200" s="1" t="s">
+      <c r="C200" s="4">
+        <v>1</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -12539,10 +12804,10 @@
       <c r="G200" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I200" s="1" t="s">
+      <c r="H200" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I200" s="3" t="s">
         <v>1067</v>
       </c>
       <c r="J200" s="1" t="s">
@@ -12554,7 +12819,7 @@
       <c r="L200" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M200" s="1" t="s">
+      <c r="M200" s="3" t="s">
         <v>1067</v>
       </c>
       <c r="N200" s="1" t="s">
@@ -12564,17 +12829,17 @@
         <v>388</v>
       </c>
     </row>
-    <row r="201">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
       <c r="A201" s="1" t="s">
         <v>1068</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C201" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D201" s="1" t="s">
+      <c r="C201" s="4">
+        <v>1</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>1069</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -12586,10 +12851,10 @@
       <c r="G201" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I201" s="1" t="s">
+      <c r="H201" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I201" s="3" t="s">
         <v>163</v>
       </c>
       <c r="J201" s="1" t="s">
@@ -12601,7 +12866,7 @@
       <c r="L201" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M201" s="1" t="s">
+      <c r="M201" s="3" t="s">
         <v>163</v>
       </c>
       <c r="N201" s="1" t="s">
@@ -12612,39 +12877,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="N2"/>
-    <hyperlink r:id="rId3" ref="F3"/>
-    <hyperlink r:id="rId4" ref="N3"/>
-    <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" ref="N6"/>
-    <hyperlink r:id="rId7" ref="N7"/>
-    <hyperlink r:id="rId8" ref="F20"/>
-    <hyperlink r:id="rId9" ref="F24"/>
-    <hyperlink r:id="rId10" ref="F32"/>
-    <hyperlink r:id="rId11" ref="N32"/>
-    <hyperlink r:id="rId12" ref="F34"/>
-    <hyperlink r:id="rId13" ref="N34"/>
-    <hyperlink r:id="rId14" ref="F35"/>
-    <hyperlink r:id="rId15" ref="N35"/>
-    <hyperlink r:id="rId16" ref="F36"/>
-    <hyperlink r:id="rId17" ref="N36"/>
-    <hyperlink r:id="rId18" ref="F37"/>
-    <hyperlink r:id="rId19" ref="N37"/>
-    <hyperlink r:id="rId20" ref="F40"/>
-    <hyperlink r:id="rId21" ref="N40"/>
-    <hyperlink r:id="rId22" ref="F45"/>
-    <hyperlink r:id="rId23" ref="N45"/>
-    <hyperlink r:id="rId24" ref="F59"/>
-    <hyperlink r:id="rId25" ref="N59"/>
-    <hyperlink r:id="rId26" ref="F70"/>
-    <hyperlink r:id="rId27" ref="N70"/>
-    <hyperlink r:id="rId28" ref="F104"/>
-    <hyperlink r:id="rId29" ref="N104"/>
-    <hyperlink r:id="rId30" ref="F109"/>
-    <hyperlink r:id="rId31" ref="N109"/>
-  </hyperlinks>
-  <drawing r:id="rId32"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>